--- a/TravaAltaPut_IRBR3_IRBRS560_IRBRS600.xlsx
+++ b/TravaAltaPut_IRBR3_IRBRS560_IRBRS600.xlsx
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>

--- a/TravaAltaPut_IRBR3_IRBRS560_IRBRS600.xlsx
+++ b/TravaAltaPut_IRBR3_IRBRS560_IRBRS600.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,10 +459,6 @@
           <t>Last</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -483,19 +479,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="3">
@@ -514,22 +498,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -545,25 +517,13 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -587,18 +547,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,11 +554,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Val.Recebido/Lucro</t>
+          <t>Spread Mercado</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -619,18 +567,6 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -644,7 +580,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3000000000000004</v>
+        <v>0.2100000000000003</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -653,18 +589,6 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -672,11 +596,13 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>&gt; 25% ?</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -685,18 +611,6 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -717,18 +631,6 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
